--- a/Table_xls/d道具类型表.xlsx
+++ b/Table_xls/d道具类型表.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mt3111\scheme_doc\excel_tool\data\xlsdir\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94C15C29-9492-45C5-8AD2-06D7C8B80E43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7860"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,17 +18,25 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$82</definedName>
   </definedNames>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="181029" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -449,7 +463,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>fire.pb.item.</t>
     </r>
@@ -457,7 +471,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>equip.EquipSecItem</t>
     </r>
@@ -502,13 +516,7 @@
     <t>宠物内丹</t>
   </si>
   <si>
-    <t>fire.pb.item.groceries.ReincarnateItem</t>
-  </si>
-  <si>
     <t>转生道具</t>
-  </si>
-  <si>
-    <t>fire.pb.item.xilianshi</t>
   </si>
   <si>
     <t>洗练石</t>
@@ -516,18 +524,20 @@
   <si>
     <t>洗练道具</t>
   </si>
+  <si>
+    <t>fire.pb.item.groceries.ReincarnateItem</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>fire.pb.item.XilianshiItem</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -545,163 +555,22 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="46">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -710,7 +579,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.4"/>
+        <fgColor theme="6" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -786,194 +655,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -981,255 +664,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -1267,62 +708,19 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1651,27 +1049,27 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XEW82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="B85" sqref="B85"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A83" sqref="A83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="46.2857142857143" customWidth="1"/>
-    <col min="3" max="3" width="17.5714285714286" customWidth="1"/>
+    <col min="2" max="2" width="46.28515625" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" customWidth="1"/>
     <col min="4" max="4" width="9" style="3"/>
-    <col min="5" max="5" width="13.1428571428571" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1688,7 +1086,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>5</v>
       </c>
@@ -1699,11 +1097,11 @@
         <v>6</v>
       </c>
       <c r="E2" s="8" t="str">
-        <f t="shared" ref="E2" si="0">IF(MOD(A2,16)=1,"宠物道具",IF(MOD(A2,16)=2,"食品",IF(MOD(A2,16)=3,"药品",IF(MOD(A2,16)=4,"暗器",IF(MOD(A2,16)=5,"宝石",IF(MOD(A2,16)=6,"杂货",IF(MOD(A2,16)=7,"装备相关道具",IF(MOD(A2,16)=8,"装备",IF(MOD(A2,16)=9,"任务道具")))))))))</f>
+        <f>IF(MOD(A2,16)=1,"宠物道具",IF(MOD(A2,16)=2,"食品",IF(MOD(A2,16)=3,"药品",IF(MOD(A2,16)=4,"暗器",IF(MOD(A2,16)=5,"宝石",IF(MOD(A2,16)=6,"杂货",IF(MOD(A2,16)=7,"装备相关道具",IF(MOD(A2,16)=8,"装备",IF(MOD(A2,16)=9,"任务道具")))))))))</f>
         <v>宝石</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>33</v>
       </c>
@@ -1714,11 +1112,11 @@
         <v>8</v>
       </c>
       <c r="E3" s="9" t="str">
-        <f t="shared" ref="E3" si="1">IF(MOD(A3,16)=1,"宠物道具",IF(MOD(A3,16)=2,"食品",IF(MOD(A3,16)=3,"药品",IF(MOD(A3,16)=4,"暗器",IF(MOD(A3,16)=5,"宝石",IF(MOD(A3,16)=6,"杂货",IF(MOD(A3,16)=7,"装备相关道具",IF(MOD(A3,16)=8,"装备",IF(MOD(A3,16)=9,"任务道具")))))))))</f>
+        <f t="shared" ref="E3" si="0">IF(MOD(A3,16)=1,"宠物道具",IF(MOD(A3,16)=2,"食品",IF(MOD(A3,16)=3,"药品",IF(MOD(A3,16)=4,"暗器",IF(MOD(A3,16)=5,"宝石",IF(MOD(A3,16)=6,"杂货",IF(MOD(A3,16)=7,"装备相关道具",IF(MOD(A3,16)=8,"装备",IF(MOD(A3,16)=9,"任务道具")))))))))</f>
         <v>宠物道具</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>49</v>
       </c>
@@ -1729,11 +1127,11 @@
         <v>10</v>
       </c>
       <c r="E4" s="9" t="str">
-        <f t="shared" ref="E4:E10" si="2">IF(MOD(A4,16)=1,"宠物道具",IF(MOD(A4,16)=2,"食品",IF(MOD(A4,16)=3,"药品",IF(MOD(A4,16)=4,"暗器",IF(MOD(A4,16)=5,"宝石",IF(MOD(A4,16)=6,"杂货",IF(MOD(A4,16)=7,"装备相关道具",IF(MOD(A4,16)=8,"装备",IF(MOD(A4,16)=9,"任务道具")))))))))</f>
+        <f t="shared" ref="E4:E10" si="1">IF(MOD(A4,16)=1,"宠物道具",IF(MOD(A4,16)=2,"食品",IF(MOD(A4,16)=3,"药品",IF(MOD(A4,16)=4,"暗器",IF(MOD(A4,16)=5,"宝石",IF(MOD(A4,16)=6,"杂货",IF(MOD(A4,16)=7,"装备相关道具",IF(MOD(A4,16)=8,"装备",IF(MOD(A4,16)=9,"任务道具")))))))))</f>
         <v>宠物道具</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>177</v>
       </c>
@@ -1744,11 +1142,11 @@
         <v>12</v>
       </c>
       <c r="E5" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>宠物道具</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>193</v>
       </c>
@@ -1759,11 +1157,11 @@
         <v>14</v>
       </c>
       <c r="E6" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>宠物道具</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>209</v>
       </c>
@@ -1774,11 +1172,11 @@
         <v>16</v>
       </c>
       <c r="E7" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>宠物道具</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>225</v>
       </c>
@@ -1789,11 +1187,11 @@
         <v>18</v>
       </c>
       <c r="E8" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>宠物道具</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" spans="1:7">
+    <row r="9" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="10">
         <v>241</v>
       </c>
@@ -1804,12 +1202,12 @@
         <v>20</v>
       </c>
       <c r="E9" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>宠物道具</v>
       </c>
       <c r="G9"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>66</v>
       </c>
@@ -1820,11 +1218,11 @@
         <v>22</v>
       </c>
       <c r="E10" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>食品</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>290</v>
       </c>
@@ -1835,11 +1233,11 @@
         <v>24</v>
       </c>
       <c r="E11" s="12" t="str">
-        <f t="shared" ref="E11:E15" si="3">IF(MOD(A11,16)=1,"宠物道具",IF(MOD(A11,16)=2,"食品",IF(MOD(A11,16)=3,"药品",IF(MOD(A11,16)=4,"暗器",IF(MOD(A11,16)=5,"宝石",IF(MOD(A11,16)=6,"杂货",IF(MOD(A11,16)=7,"装备相关道具",IF(MOD(A11,16)=8,"装备",IF(MOD(A11,16)=9,"任务道具")))))))))</f>
+        <f t="shared" ref="E11:E15" si="2">IF(MOD(A11,16)=1,"宠物道具",IF(MOD(A11,16)=2,"食品",IF(MOD(A11,16)=3,"药品",IF(MOD(A11,16)=4,"暗器",IF(MOD(A11,16)=5,"宝石",IF(MOD(A11,16)=6,"杂货",IF(MOD(A11,16)=7,"装备相关道具",IF(MOD(A11,16)=8,"装备",IF(MOD(A11,16)=9,"任务道具")))))))))</f>
         <v>食品</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="13">
         <v>19</v>
       </c>
@@ -1850,11 +1248,11 @@
         <v>26</v>
       </c>
       <c r="E12" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>药品</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="13">
         <v>35</v>
       </c>
@@ -1865,11 +1263,11 @@
         <v>26</v>
       </c>
       <c r="E13" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>药品</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="13">
         <v>51</v>
       </c>
@@ -1880,11 +1278,11 @@
         <v>29</v>
       </c>
       <c r="E14" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>药品</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="13">
         <v>67</v>
       </c>
@@ -1895,11 +1293,11 @@
         <v>31</v>
       </c>
       <c r="E15" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>药品</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="14"/>
       <c r="B16" s="14" t="s">
         <v>27</v>
@@ -1907,7 +1305,7 @@
       <c r="C16" s="14"/>
       <c r="E16" s="12"/>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
         <v>275</v>
       </c>
@@ -1918,11 +1316,11 @@
         <v>33</v>
       </c>
       <c r="E17" s="12" t="str">
-        <f t="shared" ref="E17" si="4">IF(MOD(A17,16)=1,"宠物道具",IF(MOD(A17,16)=2,"食品",IF(MOD(A17,16)=3,"药品",IF(MOD(A17,16)=4,"暗器",IF(MOD(A17,16)=5,"宝石",IF(MOD(A17,16)=6,"杂货",IF(MOD(A17,16)=7,"装备相关道具",IF(MOD(A17,16)=8,"装备",IF(MOD(A17,16)=9,"任务道具")))))))))</f>
+        <f t="shared" ref="E17" si="3">IF(MOD(A17,16)=1,"宠物道具",IF(MOD(A17,16)=2,"食品",IF(MOD(A17,16)=3,"药品",IF(MOD(A17,16)=4,"暗器",IF(MOD(A17,16)=5,"宝石",IF(MOD(A17,16)=6,"杂货",IF(MOD(A17,16)=7,"装备相关道具",IF(MOD(A17,16)=8,"装备",IF(MOD(A17,16)=9,"任务道具")))))))))</f>
         <v>药品</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
         <v>291</v>
       </c>
@@ -1933,11 +1331,11 @@
         <v>29</v>
       </c>
       <c r="E18" s="12" t="str">
-        <f t="shared" ref="E18" si="5">IF(MOD(A18,16)=1,"宠物道具",IF(MOD(A18,16)=2,"食品",IF(MOD(A18,16)=3,"药品",IF(MOD(A18,16)=4,"暗器",IF(MOD(A18,16)=5,"宝石",IF(MOD(A18,16)=6,"杂货",IF(MOD(A18,16)=7,"装备相关道具",IF(MOD(A18,16)=8,"装备",IF(MOD(A18,16)=9,"任务道具")))))))))</f>
+        <f t="shared" ref="E18" si="4">IF(MOD(A18,16)=1,"宠物道具",IF(MOD(A18,16)=2,"食品",IF(MOD(A18,16)=3,"药品",IF(MOD(A18,16)=4,"暗器",IF(MOD(A18,16)=5,"宝石",IF(MOD(A18,16)=6,"杂货",IF(MOD(A18,16)=7,"装备相关道具",IF(MOD(A18,16)=8,"装备",IF(MOD(A18,16)=9,"任务道具")))))))))</f>
         <v>药品</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="14">
         <v>307</v>
       </c>
@@ -1948,11 +1346,11 @@
         <v>29</v>
       </c>
       <c r="E19" s="12" t="str">
-        <f t="shared" ref="E19" si="6">IF(MOD(A19,16)=1,"宠物道具",IF(MOD(A19,16)=2,"食品",IF(MOD(A19,16)=3,"药品",IF(MOD(A19,16)=4,"暗器",IF(MOD(A19,16)=5,"宝石",IF(MOD(A19,16)=6,"杂货",IF(MOD(A19,16)=7,"装备相关道具",IF(MOD(A19,16)=8,"装备",IF(MOD(A19,16)=9,"任务道具")))))))))</f>
+        <f t="shared" ref="E19" si="5">IF(MOD(A19,16)=1,"宠物道具",IF(MOD(A19,16)=2,"食品",IF(MOD(A19,16)=3,"药品",IF(MOD(A19,16)=4,"暗器",IF(MOD(A19,16)=5,"宝石",IF(MOD(A19,16)=6,"杂货",IF(MOD(A19,16)=7,"装备相关道具",IF(MOD(A19,16)=8,"装备",IF(MOD(A19,16)=9,"任务道具")))))))))</f>
         <v>药品</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="6">
         <v>323</v>
       </c>
@@ -1963,11 +1361,11 @@
         <v>35</v>
       </c>
       <c r="E20" s="12" t="str">
-        <f t="shared" ref="E20" si="7">IF(MOD(A20,16)=1,"宠物道具",IF(MOD(A20,16)=2,"食品",IF(MOD(A20,16)=3,"药品",IF(MOD(A20,16)=4,"暗器",IF(MOD(A20,16)=5,"宝石",IF(MOD(A20,16)=6,"杂货",IF(MOD(A20,16)=7,"装备相关道具",IF(MOD(A20,16)=8,"装备",IF(MOD(A20,16)=9,"任务道具")))))))))</f>
+        <f t="shared" ref="E20" si="6">IF(MOD(A20,16)=1,"宠物道具",IF(MOD(A20,16)=2,"食品",IF(MOD(A20,16)=3,"药品",IF(MOD(A20,16)=4,"暗器",IF(MOD(A20,16)=5,"宝石",IF(MOD(A20,16)=6,"杂货",IF(MOD(A20,16)=7,"装备相关道具",IF(MOD(A20,16)=8,"装备",IF(MOD(A20,16)=9,"任务道具")))))))))</f>
         <v>药品</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>70</v>
       </c>
@@ -1978,11 +1376,11 @@
         <v>37</v>
       </c>
       <c r="E21" s="15" t="str">
-        <f t="shared" ref="E21:E26" si="8">IF(MOD(A21,16)=1,"宠物道具",IF(MOD(A21,16)=2,"食品",IF(MOD(A21,16)=3,"药品",IF(MOD(A21,16)=4,"暗器",IF(MOD(A21,16)=5,"宝石",IF(MOD(A21,16)=6,"杂货",IF(MOD(A21,16)=7,"装备相关道具",IF(MOD(A21,16)=8,"装备",IF(MOD(A21,16)=9,"任务道具")))))))))</f>
+        <f t="shared" ref="E21:E26" si="7">IF(MOD(A21,16)=1,"宠物道具",IF(MOD(A21,16)=2,"食品",IF(MOD(A21,16)=3,"药品",IF(MOD(A21,16)=4,"暗器",IF(MOD(A21,16)=5,"宝石",IF(MOD(A21,16)=6,"杂货",IF(MOD(A21,16)=7,"装备相关道具",IF(MOD(A21,16)=8,"装备",IF(MOD(A21,16)=9,"任务道具")))))))))</f>
         <v>杂货</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <v>118</v>
       </c>
@@ -1993,11 +1391,11 @@
         <v>39</v>
       </c>
       <c r="E22" s="15" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>杂货</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <v>150</v>
       </c>
@@ -2008,11 +1406,11 @@
         <v>37</v>
       </c>
       <c r="E23" s="15" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>杂货</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
         <v>166</v>
       </c>
@@ -2023,11 +1421,11 @@
         <v>42</v>
       </c>
       <c r="E24" s="15" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>杂货</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
         <v>198</v>
       </c>
@@ -2038,11 +1436,11 @@
         <v>44</v>
       </c>
       <c r="E25" s="15" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>杂货</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="13">
         <v>230</v>
       </c>
@@ -2053,11 +1451,11 @@
         <v>46</v>
       </c>
       <c r="E26" s="15" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>杂货</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="6">
         <v>262</v>
       </c>
@@ -2068,11 +1466,11 @@
         <v>48</v>
       </c>
       <c r="E27" s="15" t="str">
-        <f t="shared" ref="E27" si="9">IF(MOD(A27,16)=1,"宠物道具",IF(MOD(A27,16)=2,"食品",IF(MOD(A27,16)=3,"药品",IF(MOD(A27,16)=4,"暗器",IF(MOD(A27,16)=5,"宝石",IF(MOD(A27,16)=6,"杂货",IF(MOD(A27,16)=7,"装备相关道具",IF(MOD(A27,16)=8,"装备",IF(MOD(A27,16)=9,"任务道具")))))))))</f>
+        <f t="shared" ref="E27" si="8">IF(MOD(A27,16)=1,"宠物道具",IF(MOD(A27,16)=2,"食品",IF(MOD(A27,16)=3,"药品",IF(MOD(A27,16)=4,"暗器",IF(MOD(A27,16)=5,"宝石",IF(MOD(A27,16)=6,"杂货",IF(MOD(A27,16)=7,"装备相关道具",IF(MOD(A27,16)=8,"装备",IF(MOD(A27,16)=9,"任务道具")))))))))</f>
         <v>杂货</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="6">
         <v>278</v>
       </c>
@@ -2083,11 +1481,11 @@
         <v>50</v>
       </c>
       <c r="E28" s="15" t="str">
-        <f t="shared" ref="E28" si="10">IF(MOD(A28,16)=1,"宠物道具",IF(MOD(A28,16)=2,"食品",IF(MOD(A28,16)=3,"药品",IF(MOD(A28,16)=4,"暗器",IF(MOD(A28,16)=5,"宝石",IF(MOD(A28,16)=6,"杂货",IF(MOD(A28,16)=7,"装备相关道具",IF(MOD(A28,16)=8,"装备",IF(MOD(A28,16)=9,"任务道具")))))))))</f>
+        <f t="shared" ref="E28" si="9">IF(MOD(A28,16)=1,"宠物道具",IF(MOD(A28,16)=2,"食品",IF(MOD(A28,16)=3,"药品",IF(MOD(A28,16)=4,"暗器",IF(MOD(A28,16)=5,"宝石",IF(MOD(A28,16)=6,"杂货",IF(MOD(A28,16)=7,"装备相关道具",IF(MOD(A28,16)=8,"装备",IF(MOD(A28,16)=9,"任务道具")))))))))</f>
         <v>杂货</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
         <v>294</v>
       </c>
@@ -2098,11 +1496,11 @@
         <v>52</v>
       </c>
       <c r="E29" s="15" t="str">
-        <f t="shared" ref="E29:E34" si="11">IF(MOD(A29,16)=1,"宠物道具",IF(MOD(A29,16)=2,"食品",IF(MOD(A29,16)=3,"药品",IF(MOD(A29,16)=4,"暗器",IF(MOD(A29,16)=5,"宝石",IF(MOD(A29,16)=6,"杂货",IF(MOD(A29,16)=7,"装备相关道具",IF(MOD(A29,16)=8,"装备",IF(MOD(A29,16)=9,"任务道具")))))))))</f>
+        <f t="shared" ref="E29:E34" si="10">IF(MOD(A29,16)=1,"宠物道具",IF(MOD(A29,16)=2,"食品",IF(MOD(A29,16)=3,"药品",IF(MOD(A29,16)=4,"暗器",IF(MOD(A29,16)=5,"宝石",IF(MOD(A29,16)=6,"杂货",IF(MOD(A29,16)=7,"装备相关道具",IF(MOD(A29,16)=8,"装备",IF(MOD(A29,16)=9,"任务道具")))))))))</f>
         <v>杂货</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="6">
         <v>310</v>
       </c>
@@ -2113,11 +1511,11 @@
         <v>54</v>
       </c>
       <c r="E30" s="15" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>杂货</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="6">
         <v>326</v>
       </c>
@@ -2128,11 +1526,11 @@
         <v>56</v>
       </c>
       <c r="E31" s="15" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>杂货</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="6">
         <v>342</v>
       </c>
@@ -2143,11 +1541,11 @@
         <v>58</v>
       </c>
       <c r="E32" s="15" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>杂货</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:16377" x14ac:dyDescent="0.2">
       <c r="A33" s="6">
         <v>358</v>
       </c>
@@ -2158,11 +1556,11 @@
         <v>60</v>
       </c>
       <c r="E33" s="15" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>杂货</v>
       </c>
     </row>
-    <row r="34" ht="13.5" spans="1:16377">
+    <row r="34" spans="1:16377" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="6">
         <v>374</v>
       </c>
@@ -2174,7 +1572,7 @@
       </c>
       <c r="D34" s="16"/>
       <c r="E34" s="15" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>杂货</v>
       </c>
       <c r="F34" s="17"/>
@@ -18550,7 +17948,7 @@
       <c r="XEV34" s="17"/>
       <c r="XEW34" s="17"/>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:16377" x14ac:dyDescent="0.2">
       <c r="A35" s="14">
         <v>422</v>
       </c>
@@ -18561,11 +17959,11 @@
         <v>63</v>
       </c>
       <c r="E35" s="15" t="str">
-        <f t="shared" ref="E35" si="12">IF(MOD(A35,16)=1,"宠物道具",IF(MOD(A35,16)=2,"食品",IF(MOD(A35,16)=3,"药品",IF(MOD(A35,16)=4,"暗器",IF(MOD(A35,16)=5,"宝石",IF(MOD(A35,16)=6,"杂货",IF(MOD(A35,16)=7,"装备相关道具",IF(MOD(A35,16)=8,"装备",IF(MOD(A35,16)=9,"任务道具")))))))))</f>
+        <f t="shared" ref="E35" si="11">IF(MOD(A35,16)=1,"宠物道具",IF(MOD(A35,16)=2,"食品",IF(MOD(A35,16)=3,"药品",IF(MOD(A35,16)=4,"暗器",IF(MOD(A35,16)=5,"宝石",IF(MOD(A35,16)=6,"杂货",IF(MOD(A35,16)=7,"装备相关道具",IF(MOD(A35,16)=8,"装备",IF(MOD(A35,16)=9,"任务道具")))))))))</f>
         <v>杂货</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:16377" x14ac:dyDescent="0.2">
       <c r="A36" s="6">
         <v>518</v>
       </c>
@@ -18576,11 +17974,11 @@
         <v>65</v>
       </c>
       <c r="E36" s="15" t="str">
-        <f t="shared" ref="E36:E41" si="13">IF(MOD(A36,16)=1,"宠物道具",IF(MOD(A36,16)=2,"食品",IF(MOD(A36,16)=3,"药品",IF(MOD(A36,16)=4,"暗器",IF(MOD(A36,16)=5,"宝石",IF(MOD(A36,16)=6,"杂货",IF(MOD(A36,16)=7,"装备相关道具",IF(MOD(A36,16)=8,"装备",IF(MOD(A36,16)=9,"任务道具")))))))))</f>
+        <f t="shared" ref="E36:E40" si="12">IF(MOD(A36,16)=1,"宠物道具",IF(MOD(A36,16)=2,"食品",IF(MOD(A36,16)=3,"药品",IF(MOD(A36,16)=4,"暗器",IF(MOD(A36,16)=5,"宝石",IF(MOD(A36,16)=6,"杂货",IF(MOD(A36,16)=7,"装备相关道具",IF(MOD(A36,16)=8,"装备",IF(MOD(A36,16)=9,"任务道具")))))))))</f>
         <v>杂货</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:16377" x14ac:dyDescent="0.2">
       <c r="A37" s="6">
         <v>534</v>
       </c>
@@ -18591,11 +17989,11 @@
         <v>67</v>
       </c>
       <c r="E37" s="15" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>杂货</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:16377" x14ac:dyDescent="0.2">
       <c r="A38" s="6">
         <v>390</v>
       </c>
@@ -18606,11 +18004,11 @@
         <v>69</v>
       </c>
       <c r="E38" s="15" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>杂货</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:16377" x14ac:dyDescent="0.2">
       <c r="A39" s="6">
         <v>550</v>
       </c>
@@ -18621,11 +18019,11 @@
         <v>71</v>
       </c>
       <c r="E39" s="15" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>杂货</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:16377" x14ac:dyDescent="0.2">
       <c r="A40" s="6">
         <v>566</v>
       </c>
@@ -18636,11 +18034,11 @@
         <v>73</v>
       </c>
       <c r="E40" s="15" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>杂货</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:16377" x14ac:dyDescent="0.2">
       <c r="A41" s="6">
         <v>582</v>
       </c>
@@ -18651,11 +18049,11 @@
         <v>75</v>
       </c>
       <c r="E41" s="15" t="str">
-        <f t="shared" si="13"/>
+        <f>IF(MOD(A41,16)=1,"宠物道具",IF(MOD(A41,16)=2,"食品",IF(MOD(A41,16)=3,"药品",IF(MOD(A41,16)=4,"暗器",IF(MOD(A41,16)=5,"宝石",IF(MOD(A41,16)=6,"杂货",IF(MOD(A41,16)=7,"装备相关道具",IF(MOD(A41,16)=8,"装备",IF(MOD(A41,16)=9,"任务道具")))))))))</f>
         <v>杂货</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:16377" x14ac:dyDescent="0.2">
       <c r="A42" s="18">
         <v>2470</v>
       </c>
@@ -18670,7 +18068,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:16377" x14ac:dyDescent="0.2">
       <c r="A43" s="5">
         <v>3734</v>
       </c>
@@ -18685,7 +18083,7 @@
         <v>杂货</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:16377" x14ac:dyDescent="0.2">
       <c r="A44" s="6">
         <v>4262</v>
       </c>
@@ -18696,11 +18094,11 @@
         <v>79</v>
       </c>
       <c r="E44" s="15" t="str">
-        <f t="shared" ref="E44" si="14">IF(MOD(A44,16)=1,"宠物道具",IF(MOD(A44,16)=2,"食品",IF(MOD(A44,16)=3,"药品",IF(MOD(A44,16)=4,"暗器",IF(MOD(A44,16)=5,"宝石",IF(MOD(A44,16)=6,"杂货",IF(MOD(A44,16)=7,"装备相关道具",IF(MOD(A44,16)=8,"装备",IF(MOD(A44,16)=9,"任务道具")))))))))</f>
+        <f t="shared" ref="E44" si="13">IF(MOD(A44,16)=1,"宠物道具",IF(MOD(A44,16)=2,"食品",IF(MOD(A44,16)=3,"药品",IF(MOD(A44,16)=4,"暗器",IF(MOD(A44,16)=5,"宝石",IF(MOD(A44,16)=6,"杂货",IF(MOD(A44,16)=7,"装备相关道具",IF(MOD(A44,16)=8,"装备",IF(MOD(A44,16)=9,"任务道具")))))))))</f>
         <v>杂货</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:16377" x14ac:dyDescent="0.2">
       <c r="A45" s="6">
         <v>4278</v>
       </c>
@@ -18714,7 +18112,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:16377" x14ac:dyDescent="0.2">
       <c r="A46" s="6">
         <v>4518</v>
       </c>
@@ -18729,7 +18127,7 @@
         <v>杂货</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:16377" x14ac:dyDescent="0.2">
       <c r="A47" s="21">
         <v>4534</v>
       </c>
@@ -18744,7 +18142,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:16377" x14ac:dyDescent="0.2">
       <c r="A48" s="21">
         <v>4550</v>
       </c>
@@ -18759,7 +18157,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>4566</v>
       </c>
@@ -18773,7 +18171,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>4582</v>
       </c>
@@ -18787,7 +18185,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="21">
         <v>4598</v>
       </c>
@@ -18802,7 +18200,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="21">
         <v>4614</v>
       </c>
@@ -18817,7 +18215,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="21">
         <v>4630</v>
       </c>
@@ -18832,7 +18230,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="21">
         <v>4646</v>
       </c>
@@ -18847,7 +18245,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
         <v>4662</v>
       </c>
@@ -18861,7 +18259,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="5">
         <v>40</v>
       </c>
@@ -18875,7 +18273,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="5">
         <v>72</v>
       </c>
@@ -18889,7 +18287,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="5">
         <v>88</v>
       </c>
@@ -18903,7 +18301,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="5">
         <v>312</v>
       </c>
@@ -18917,7 +18315,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="5">
         <v>568</v>
       </c>
@@ -18931,7 +18329,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="14">
         <v>904</v>
       </c>
@@ -18943,7 +18341,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="5">
         <v>1288</v>
       </c>
@@ -18960,7 +18358,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="6">
         <v>1384</v>
       </c>
@@ -18974,7 +18372,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="6">
         <v>1640</v>
       </c>
@@ -18988,7 +18386,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="5">
         <v>1800</v>
       </c>
@@ -19005,7 +18403,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="5">
         <v>2824</v>
       </c>
@@ -19022,7 +18420,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="5">
         <v>3080</v>
       </c>
@@ -19036,7 +18434,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="5">
         <v>4104</v>
       </c>
@@ -19053,7 +18451,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="5">
         <v>4360</v>
       </c>
@@ -19070,7 +18468,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="5">
         <v>25</v>
       </c>
@@ -19081,11 +18479,11 @@
         <v>125</v>
       </c>
       <c r="E70" s="26" t="str">
-        <f t="shared" ref="E70:E73" si="15">IF(MOD(A70,16)=1,"宠物道具",IF(MOD(A70,16)=2,"食品",IF(MOD(A70,16)=3,"药品",IF(MOD(A70,16)=4,"暗器",IF(MOD(A70,16)=5,"宝石",IF(MOD(A70,16)=6,"杂货",IF(MOD(A70,16)=7,"装备相关道具",IF(MOD(A70,16)=8,"装备",IF(MOD(A70,16)=9,"任务道具")))))))))</f>
+        <f t="shared" ref="E70:E73" si="14">IF(MOD(A70,16)=1,"宠物道具",IF(MOD(A70,16)=2,"食品",IF(MOD(A70,16)=3,"药品",IF(MOD(A70,16)=4,"暗器",IF(MOD(A70,16)=5,"宝石",IF(MOD(A70,16)=6,"杂货",IF(MOD(A70,16)=7,"装备相关道具",IF(MOD(A70,16)=8,"装备",IF(MOD(A70,16)=9,"任务道具")))))))))</f>
         <v>任务道具</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="5">
         <v>41</v>
       </c>
@@ -19096,11 +18494,11 @@
         <v>125</v>
       </c>
       <c r="E71" s="26" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>任务道具</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="14">
         <v>281</v>
       </c>
@@ -19111,11 +18509,11 @@
         <v>125</v>
       </c>
       <c r="E72" s="26" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>任务道具</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="13">
         <v>313</v>
       </c>
@@ -19126,11 +18524,11 @@
         <v>129</v>
       </c>
       <c r="E73" s="26" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>任务道具</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="27">
         <v>376</v>
       </c>
@@ -19145,7 +18543,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="27">
         <v>392</v>
       </c>
@@ -19160,7 +18558,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="27">
         <v>152</v>
       </c>
@@ -19175,7 +18573,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="27">
         <v>168</v>
       </c>
@@ -19190,7 +18588,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="78" s="2" customFormat="1" spans="1:5">
+    <row r="78" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
         <v>184</v>
       </c>
@@ -19204,7 +18602,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>598</v>
       </c>
@@ -19218,7 +18616,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="30">
         <v>50</v>
       </c>
@@ -19233,41 +18631,40 @@
         <v>143</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>599</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="33" t="s">
+        <v>147</v>
+      </c>
+      <c r="C81" t="s">
         <v>144</v>
       </c>
-      <c r="C81" t="s">
+      <c r="E81" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>657</v>
+      </c>
+      <c r="B82" s="33" t="s">
+        <v>148</v>
+      </c>
+      <c r="C82" t="s">
         <v>145</v>
-      </c>
-      <c r="E81" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
-      <c r="A82">
-        <v>666</v>
-      </c>
-      <c r="B82" t="s">
-        <v>146</v>
-      </c>
-      <c r="C82" t="s">
-        <v>147</v>
       </c>
       <c r="D82"/>
       <c r="E82" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E82">
-    <extLst/>
-  </autoFilter>
+  <autoFilter ref="A1:E82" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
